--- a/notebooks/WWOX/input/WWOX_DEE28_individuals.xlsx
+++ b/notebooks/WWOX/input/WWOX_DEE28_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/WWOX/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD06610-2E24-064C-96D4-702D80D6DE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F73C8-64FF-B948-9B9A-C2EAFB96D91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="4000" windowWidth="33940" windowHeight="7700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1040" windowWidth="37280" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -890,15 +890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1207,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1421,7 +1412,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:67" ht="16" thickBot="1">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1624,7 +1615,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="3" spans="1:67" ht="16" thickBot="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1712,7 +1703,7 @@
       <c r="AF3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="11"/>
+      <c r="AG3" s="6"/>
       <c r="AH3" t="s">
         <v>73</v>
       </c>
@@ -1781,7 +1772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="4" spans="1:67" ht="16" thickBot="1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1940,7 +1931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="5" spans="1:67" ht="16" thickBot="1">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2031,7 +2022,7 @@
       <c r="AF5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG5" s="11"/>
+      <c r="AG5" s="6"/>
       <c r="AH5" t="s">
         <v>73</v>
       </c>
@@ -2100,7 +2091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="6" spans="1:67" ht="16" thickBot="1">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2188,7 +2179,7 @@
       <c r="AF6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG6" s="11"/>
+      <c r="AG6" s="6"/>
       <c r="AH6" t="s">
         <v>73</v>
       </c>
@@ -2257,7 +2248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="7" spans="1:67" ht="16" thickBot="1">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2345,7 +2336,7 @@
       <c r="AF7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG7" s="11"/>
+      <c r="AG7" s="6"/>
       <c r="AH7" t="s">
         <v>74</v>
       </c>
@@ -2414,7 +2405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="8" spans="1:67" ht="16" thickBot="1">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -2505,7 +2496,7 @@
       <c r="AF8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG8" s="11"/>
+      <c r="AG8" s="6"/>
       <c r="AH8" t="s">
         <v>41</v>
       </c>
@@ -2574,7 +2565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="9" spans="1:67" ht="17" thickBot="1">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -2662,7 +2653,7 @@
       <c r="AF9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG9" s="11"/>
+      <c r="AG9" s="6"/>
       <c r="AH9" t="s">
         <v>41</v>
       </c>
@@ -2732,7 +2723,7 @@
       </c>
       <c r="BH9" s="9"/>
     </row>
-    <row r="10" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="10" spans="1:67" ht="17" thickBot="1">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2820,7 +2811,7 @@
       <c r="AF10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG10" s="11"/>
+      <c r="AG10" s="6"/>
       <c r="AH10" t="s">
         <v>74</v>
       </c>
@@ -2890,7 +2881,7 @@
       </c>
       <c r="BH10" s="9"/>
     </row>
-    <row r="11" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="11" spans="1:67" ht="17" thickBot="1">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -2978,7 +2969,7 @@
       <c r="AF11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG11" s="11"/>
+      <c r="AG11" s="6"/>
       <c r="AH11" t="s">
         <v>73</v>
       </c>
@@ -3048,7 +3039,7 @@
       </c>
       <c r="BH11" s="9"/>
     </row>
-    <row r="12" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="12" spans="1:67" ht="16" thickBot="1">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -3136,7 +3127,7 @@
       <c r="AF12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG12" s="11"/>
+      <c r="AG12" s="6"/>
       <c r="AH12" t="s">
         <v>74</v>
       </c>
@@ -3205,7 +3196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="13" spans="1:67" ht="16" thickBot="1">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -3306,8 +3297,8 @@
       <c r="AK13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
       <c r="AN13" t="s">
         <v>41</v>
       </c>
@@ -3364,7 +3355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="14" spans="1:67" ht="16" thickBot="1">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -3465,8 +3456,8 @@
       <c r="AK14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
       <c r="AN14" t="s">
         <v>41</v>
       </c>
@@ -3523,7 +3514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="15" spans="1:67" ht="17" thickBot="1">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -3624,8 +3615,8 @@
       <c r="AK15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
       <c r="AN15" t="s">
         <v>41</v>
       </c>
@@ -3683,7 +3674,7 @@
       </c>
       <c r="BH15" s="9"/>
     </row>
-    <row r="16" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="16" spans="1:67" ht="17" thickBot="1">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -3784,8 +3775,8 @@
       <c r="AK16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
       <c r="AN16" t="s">
         <v>41</v>
       </c>
@@ -3843,7 +3834,7 @@
       </c>
       <c r="BH16" s="9"/>
     </row>
-    <row r="17" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="17" spans="1:67" ht="17" thickBot="1">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3944,8 +3935,8 @@
       <c r="AK17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
       <c r="AN17" t="s">
         <v>41</v>
       </c>
@@ -4003,7 +3994,7 @@
       </c>
       <c r="BH17" s="9"/>
     </row>
-    <row r="18" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="18" spans="1:67" ht="16" thickBot="1">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -4105,8 +4096,8 @@
       <c r="AK18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
       <c r="AN18" t="s">
         <v>41</v>
       </c>
@@ -4163,7 +4154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="19" spans="1:67" ht="16" thickBot="1">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -4251,7 +4242,7 @@
       <c r="AF19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG19" s="11"/>
+      <c r="AG19" s="6"/>
       <c r="AH19" t="s">
         <v>41</v>
       </c>
@@ -4320,7 +4311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="20" spans="1:67" ht="16" thickBot="1">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -4408,7 +4399,7 @@
       <c r="AF20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG20" s="11"/>
+      <c r="AG20" s="6"/>
       <c r="AH20" t="s">
         <v>41</v>
       </c>
@@ -4477,7 +4468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="21" spans="1:67" ht="16" thickBot="1">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -4565,7 +4556,7 @@
       <c r="AF21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG21" s="11"/>
+      <c r="AG21" s="6"/>
       <c r="AH21" t="s">
         <v>74</v>
       </c>
@@ -4634,7 +4625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="22" spans="1:67" ht="16" thickBot="1">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -4722,7 +4713,7 @@
       <c r="AF22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG22" s="11"/>
+      <c r="AG22" s="6"/>
       <c r="AH22" t="s">
         <v>41</v>
       </c>
@@ -4791,7 +4782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="23" spans="1:67" ht="17" thickBot="1">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4879,7 +4870,7 @@
       <c r="AF23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG23" s="11"/>
+      <c r="AG23" s="6"/>
       <c r="AH23" t="s">
         <v>74</v>
       </c>
@@ -4949,7 +4940,7 @@
       </c>
       <c r="BH23" s="9"/>
     </row>
-    <row r="24" spans="1:67" ht="17" hidden="1" thickBot="1">
+    <row r="24" spans="1:67" ht="17" thickBot="1">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -5037,7 +5028,7 @@
       <c r="AF24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG24" s="11"/>
+      <c r="AG24" s="6"/>
       <c r="AH24" t="s">
         <v>74</v>
       </c>
@@ -5107,7 +5098,7 @@
       </c>
       <c r="BH24" s="9"/>
     </row>
-    <row r="25" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="25" spans="1:67" ht="16" thickBot="1">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -5195,7 +5186,7 @@
       <c r="AF25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG25" s="11"/>
+      <c r="AG25" s="6"/>
       <c r="AH25" t="s">
         <v>73</v>
       </c>
@@ -5264,7 +5255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="26" spans="1:67" ht="16" thickBot="1">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5352,7 +5343,7 @@
       <c r="AF26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG26" s="11"/>
+      <c r="AG26" s="6"/>
       <c r="AH26" t="s">
         <v>74</v>
       </c>
@@ -5421,7 +5412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="27" spans="1:67" ht="16" thickBot="1">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -5509,7 +5500,7 @@
       <c r="AF27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG27" s="11"/>
+      <c r="AG27" s="6"/>
       <c r="AH27" t="s">
         <v>74</v>
       </c>
@@ -5578,7 +5569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:67" ht="16" hidden="1" thickBot="1">
+    <row r="28" spans="1:67" ht="16" thickBot="1">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -5666,7 +5657,7 @@
       <c r="AF28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG28" s="11"/>
+      <c r="AG28" s="6"/>
       <c r="AH28" t="s">
         <v>74</v>
       </c>
@@ -5796,7 +5787,7 @@
       <c r="AG29" t="s">
         <v>99</v>
       </c>
-      <c r="AJ29" s="12" t="s">
+      <c r="AJ29" s="6" t="s">
         <v>196</v>
       </c>
       <c r="AL29" t="s">
@@ -5808,7 +5799,7 @@
       <c r="AN29" t="s">
         <v>228</v>
       </c>
-      <c r="AP29" s="10" t="s">
+      <c r="AP29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AQ29" t="s">
@@ -5894,22 +5885,22 @@
       <c r="W30" t="s">
         <v>152</v>
       </c>
-      <c r="AA30" s="12" t="s">
+      <c r="AA30" s="6" t="s">
         <v>238</v>
       </c>
       <c r="AE30" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="AF30" t="s">
         <v>152</v>
       </c>
-      <c r="AJ30" s="12" t="s">
+      <c r="AJ30" s="6" t="s">
         <v>196</v>
       </c>
       <c r="AL30" t="s">
         <v>152</v>
       </c>
-      <c r="AN30" s="12" t="s">
+      <c r="AN30" s="6" t="s">
         <v>196</v>
       </c>
       <c r="BH30" t="s">
@@ -5918,7 +5909,7 @@
       <c r="BJ30" t="s">
         <v>233</v>
       </c>
-      <c r="BM30" s="12" t="s">
+      <c r="BM30" s="6" t="s">
         <v>196</v>
       </c>
       <c r="BO30" t="s">

--- a/notebooks/WWOX/input/WWOX_DEE28_individuals.xlsx
+++ b/notebooks/WWOX/input/WWOX_DEE28_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/WWOX/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB1E711-74FA-8C45-8915-CAFD21930431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2631C9-300E-2C49-A814-4451742C3EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4280" windowWidth="37980" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1620" windowWidth="38640" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="297">
   <si>
     <t>PMID</t>
   </si>
@@ -880,18 +880,9 @@
     <t>Case report</t>
   </si>
   <si>
-    <t>DEL exon 1-5</t>
-  </si>
-  <si>
-    <t>DEL exon 6-8</t>
-  </si>
-  <si>
     <t>c.-366-?_516+?del;c.517-?_1056+?del</t>
   </si>
   <si>
-    <t>DEL 2.8 Mb</t>
-  </si>
-  <si>
     <t>c.-366-?*871+?del</t>
   </si>
   <si>
@@ -908,6 +899,18 @@
   </si>
   <si>
     <t>P3Y5M</t>
+  </si>
+  <si>
+    <t>DEL:exon 6-8</t>
+  </si>
+  <si>
+    <t>DEL:2.8 Mb</t>
+  </si>
+  <si>
+    <t>DUP:exon 6-8</t>
+  </si>
+  <si>
+    <t>DEL:exon 1-5</t>
   </si>
 </sst>
 </file>
@@ -1373,14 +1376,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N10" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.6640625" customWidth="1"/>
     <col min="74" max="74" width="9" customWidth="1"/>
   </cols>
@@ -1510,7 +1515,7 @@
         <v>24</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>25</v>
@@ -1764,7 +1769,7 @@
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AQ2" t="s">
         <v>49</v>
@@ -1919,13 +1924,13 @@
         <v>240</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L3" t="s">
         <v>286</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L3" t="s">
-        <v>288</v>
       </c>
       <c r="M3" t="s">
         <v>92</v>
@@ -2094,7 +2099,7 @@
         <v>59</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L4" t="s">
         <v>103</v>
@@ -2610,10 +2615,10 @@
         <v>63</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
         <v>92</v>
@@ -2950,6 +2955,9 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
+        <v>295</v>
+      </c>
+      <c r="L9" t="s">
         <v>124</v>
       </c>
       <c r="M9" t="s">
@@ -3128,7 +3136,7 @@
         <v>171</v>
       </c>
       <c r="N10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
@@ -6826,13 +6834,13 @@
         <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s">
         <v>175</v>
